--- a/chargingdata/202506-202506.xlsx
+++ b/chargingdata/202506-202506.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
   <si>
     <t>充电数据分析</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -406,10 +406,6 @@
   </si>
   <si>
     <t>超时占位率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -804,13 +800,112 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -822,67 +917,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -912,82 +965,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1298,7 +1294,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1324,57 +1320,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="101"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="104"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1398,10 +1394,10 @@
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="55"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +1412,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="45" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1437,10 +1433,10 @@
       <c r="G5" s="5">
         <v>7702.13</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="46">
         <v>10768</v>
       </c>
-      <c r="I5" s="55"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="2"/>
       <c r="K5" s="6">
         <v>2877.89</v>
@@ -1453,7 +1449,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="105"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1472,10 +1468,10 @@
       <c r="G6" s="5">
         <v>2008.67</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="46">
         <v>3055</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="2"/>
       <c r="K6" s="6">
         <v>798.24</v>
@@ -1488,7 +1484,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="105"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
@@ -1507,10 +1503,10 @@
       <c r="G7" s="10">
         <v>156.75</v>
       </c>
-      <c r="H7" s="106">
+      <c r="H7" s="48">
         <v>246</v>
       </c>
-      <c r="I7" s="84"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="9"/>
       <c r="K7" s="6">
         <v>58.63</v>
@@ -1524,11 +1520,11 @@
       <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="99"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="12">
         <v>346277.12</v>
       </c>
@@ -1541,10 +1537,10 @@
       <c r="G8" s="12">
         <v>9867.5499999999993</v>
       </c>
-      <c r="H8" s="92">
+      <c r="H8" s="59">
         <v>14069</v>
       </c>
-      <c r="I8" s="61"/>
+      <c r="I8" s="60"/>
       <c r="J8" s="13"/>
       <c r="K8" s="14">
         <v>3734.76</v>
@@ -1559,10 +1555,10 @@
       <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="63" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1580,10 +1576,10 @@
       <c r="G9" s="5">
         <v>654.35</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="46">
         <v>978</v>
       </c>
-      <c r="I9" s="55"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="2">
         <v>265.07</v>
       </c>
@@ -1600,8 +1596,8 @@
       <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="82"/>
-      <c r="B10" s="89"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1617,10 +1613,10 @@
       <c r="G10" s="5">
         <v>1944.52</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="46">
         <v>3078</v>
       </c>
-      <c r="I10" s="55"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="2">
         <v>315.27999999999997</v>
       </c>
@@ -1638,11 +1634,11 @@
       <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="12">
         <v>114163.73</v>
       </c>
@@ -1655,10 +1651,10 @@
       <c r="G11" s="12">
         <v>2598.87</v>
       </c>
-      <c r="H11" s="92">
+      <c r="H11" s="59">
         <v>4056</v>
       </c>
-      <c r="I11" s="61"/>
+      <c r="I11" s="60"/>
       <c r="J11" s="12">
         <v>580.35</v>
       </c>
@@ -1674,11 +1670,11 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="17">
         <v>460440.85</v>
       </c>
@@ -1691,10 +1687,10 @@
       <c r="G12" s="17">
         <v>12466.42</v>
       </c>
-      <c r="H12" s="93">
+      <c r="H12" s="71">
         <v>18125</v>
       </c>
-      <c r="I12" s="69"/>
+      <c r="I12" s="70"/>
       <c r="J12" s="17">
         <v>580.35</v>
       </c>
@@ -1710,30 +1706,30 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="96"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="74"/>
     </row>
     <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
@@ -1746,10 +1742,10 @@
       <c r="G14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="87" t="s">
+      <c r="H14" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="55"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="2" t="s">
         <v>44</v>
       </c>
@@ -1764,13 +1760,13 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="89"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="2">
         <v>299640</v>
       </c>
@@ -1783,10 +1779,10 @@
       <c r="G15" s="5">
         <v>32518.32</v>
       </c>
-      <c r="H15" s="90">
+      <c r="H15" s="76">
         <v>1083.94</v>
       </c>
-      <c r="I15" s="91"/>
+      <c r="I15" s="77"/>
       <c r="J15" s="22">
         <v>0.1085</v>
       </c>
@@ -1801,11 +1797,11 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="82"/>
-      <c r="B16" s="88" t="s">
+      <c r="A16" s="62"/>
+      <c r="B16" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="89"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="2">
         <v>82980</v>
       </c>
@@ -1818,10 +1814,10 @@
       <c r="G16" s="5">
         <v>9431.4599999999991</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="76">
         <v>314.38</v>
       </c>
-      <c r="I16" s="91"/>
+      <c r="I16" s="77"/>
       <c r="J16" s="22">
         <v>0.1137</v>
       </c>
@@ -1837,11 +1833,11 @@
       <c r="O16" s="24"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="12">
         <v>382620</v>
       </c>
@@ -1854,10 +1850,10 @@
       <c r="G17" s="12">
         <v>41949.78</v>
       </c>
-      <c r="H17" s="65">
+      <c r="H17" s="66">
         <v>1398.33</v>
       </c>
-      <c r="I17" s="66"/>
+      <c r="I17" s="67"/>
       <c r="J17" s="25">
         <v>0.1096</v>
       </c>
@@ -1875,10 +1871,10 @@
       <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="13">
         <v>127170</v>
       </c>
@@ -1891,10 +1887,10 @@
       <c r="G18" s="12">
         <v>13006.27</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="66">
         <v>433.54</v>
       </c>
-      <c r="I18" s="66"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="25">
         <v>0.1023</v>
       </c>
@@ -1909,11 +1905,11 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="17">
         <v>509790</v>
       </c>
@@ -1926,10 +1922,10 @@
       <c r="G19" s="17">
         <v>54956.05</v>
       </c>
-      <c r="H19" s="70">
+      <c r="H19" s="79">
         <v>1831.87</v>
       </c>
-      <c r="I19" s="71"/>
+      <c r="I19" s="80"/>
       <c r="J19" s="28">
         <v>0.10780000000000001</v>
       </c>
@@ -1944,30 +1940,30 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="50"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="83"/>
     </row>
     <row r="21" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="55"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="3" t="s">
         <v>52</v>
       </c>
@@ -1980,10 +1976,10 @@
       <c r="G21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="87" t="s">
+      <c r="H21" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="55"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="3" t="s">
         <v>57</v>
       </c>
@@ -1998,13 +1994,13 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="84"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="30">
         <v>2.54</v>
       </c>
@@ -2035,11 +2031,11 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="82"/>
-      <c r="B23" s="83" t="s">
+      <c r="A23" s="62"/>
+      <c r="B23" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="84"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="30">
         <v>2.79</v>
       </c>
@@ -2070,11 +2066,11 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="14">
         <v>2.57</v>
       </c>
@@ -2087,10 +2083,10 @@
       <c r="G24" s="14">
         <v>29.41</v>
       </c>
-      <c r="H24" s="65">
+      <c r="H24" s="66">
         <v>35.090000000000003</v>
       </c>
-      <c r="I24" s="66"/>
+      <c r="I24" s="67"/>
       <c r="J24" s="14">
         <v>3.69</v>
       </c>
@@ -2108,10 +2104,10 @@
       <c r="A25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="14">
         <v>2.41</v>
       </c>
@@ -2124,10 +2120,10 @@
       <c r="G25" s="14">
         <v>22.3</v>
       </c>
-      <c r="H25" s="65">
+      <c r="H25" s="66">
         <v>43.93</v>
       </c>
-      <c r="I25" s="66"/>
+      <c r="I25" s="67"/>
       <c r="J25" s="14">
         <v>3.76</v>
       </c>
@@ -2142,11 +2138,11 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="18">
         <v>2.5299999999999998</v>
       </c>
@@ -2159,10 +2155,10 @@
       <c r="G26" s="18">
         <v>27.84</v>
       </c>
-      <c r="H26" s="70">
+      <c r="H26" s="79">
         <v>36.93</v>
       </c>
-      <c r="I26" s="71"/>
+      <c r="I26" s="80"/>
       <c r="J26" s="18">
         <v>3.71</v>
       </c>
@@ -2177,52 +2173,52 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="50"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="83"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="76" t="s">
+      <c r="C28" s="92"/>
+      <c r="D28" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="78" t="s">
+      <c r="E28" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="78" t="s">
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="L28" s="79"/>
-      <c r="M28" s="80"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="99"/>
     </row>
     <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="52"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="77"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="96"/>
       <c r="E29" s="35" t="s">
         <v>69</v>
       </c>
@@ -2252,13 +2248,13 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="56"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="5">
         <v>230518.98</v>
       </c>
@@ -2292,11 +2288,11 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="57"/>
-      <c r="B31" s="56" t="s">
+      <c r="A31" s="100"/>
+      <c r="B31" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="56"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="5">
         <v>63087.26</v>
       </c>
@@ -2330,11 +2326,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="57"/>
-      <c r="B32" s="58" t="s">
+      <c r="A32" s="100"/>
+      <c r="B32" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="56"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="5">
         <v>4638.47</v>
       </c>
@@ -2368,11 +2364,11 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="12">
         <v>298244.71000000002</v>
       </c>
@@ -2410,10 +2406,10 @@
       <c r="A34" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="63"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="12">
         <v>92998.98</v>
       </c>
@@ -2447,11 +2443,11 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
       <c r="D35" s="17">
         <v>391243.69</v>
       </c>
@@ -2486,47 +2482,47 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="50"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="83"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="53" t="s">
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="56" t="s">
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="101"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="52"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="2" t="s">
         <v>83</v>
       </c>
@@ -2545,10 +2541,10 @@
       <c r="G38" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H38" s="56" t="s">
+      <c r="H38" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="I38" s="56"/>
+      <c r="I38" s="101"/>
       <c r="J38" s="2" t="s">
         <v>90</v>
       </c>
@@ -2566,129 +2562,47 @@
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="22">
-        <v>3.1154649266402511E-2</v>
-      </c>
-      <c r="C39" s="22">
-        <v>4.717046849680958E-2</v>
-      </c>
-      <c r="D39" s="22">
-        <v>0.36101828894697652</v>
-      </c>
-      <c r="E39" s="22">
-        <v>0.56065659328981143</v>
-      </c>
-      <c r="F39" s="2">
-        <v>20000</v>
-      </c>
-      <c r="G39" s="2">
-        <v>15726</v>
-      </c>
-      <c r="H39" s="45">
-        <f>G39/F39</f>
-        <v>0.7863</v>
-      </c>
-      <c r="I39" s="46"/>
-      <c r="J39" s="22">
-        <v>0.5373</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="22">
-        <v>4.2977289060777336E-2</v>
-      </c>
-      <c r="C40" s="22">
-        <v>7.7373141744566817E-2</v>
-      </c>
-      <c r="D40" s="22">
-        <v>0.42265968739397641</v>
-      </c>
-      <c r="E40" s="22">
-        <v>0.45698988180067934</v>
-      </c>
-      <c r="F40" s="2">
-        <v>6768</v>
-      </c>
-      <c r="G40" s="2">
-        <v>5547</v>
-      </c>
-      <c r="H40" s="45">
-        <f>G40/F40</f>
-        <v>0.81959219858156029</v>
-      </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="22">
-        <v>0.37219999999999998</v>
-      </c>
-      <c r="K40" s="8">
-        <v>59340</v>
-      </c>
-      <c r="L40" s="2">
-        <f>14322.2-1534</f>
-        <v>12788.2</v>
-      </c>
-      <c r="M40" s="22">
-        <f>L40/K40</f>
-        <v>0.2155072463768116</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="H38:I38"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="H25:I25"/>
@@ -2705,15 +2619,49 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/chargingdata/202506-202506.xlsx
+++ b/chargingdata/202506-202506.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
   <si>
     <t>充电数据分析</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -411,6 +411,10 @@
   <si>
     <t>高岭站</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1294,7 +1298,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2571,9 +2575,15 @@
       <c r="H39" s="103"/>
       <c r="I39" s="104"/>
       <c r="J39" s="22"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+      <c r="K39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
@@ -2588,9 +2598,15 @@
       <c r="H40" s="103"/>
       <c r="I40" s="104"/>
       <c r="J40" s="22"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="22"/>
+      <c r="K40" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="22">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="68">

--- a/chargingdata/202506-202506.xlsx
+++ b/chargingdata/202506-202506.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
   <si>
     <t>充电数据分析</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -411,10 +411,6 @@
   <si>
     <t>高岭站</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -804,39 +800,162 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -846,148 +965,25 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1298,7 +1294,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1324,57 +1320,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="51"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="106"/>
     </row>
     <row r="4" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1398,10 +1394,10 @@
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="47"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +1412,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="100" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1437,10 +1433,10 @@
       <c r="G5" s="5">
         <v>7702.13</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="53">
         <v>10768</v>
       </c>
-      <c r="I5" s="47"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="2"/>
       <c r="K5" s="6">
         <v>2877.89</v>
@@ -1453,7 +1449,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="45"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1472,10 +1468,10 @@
       <c r="G6" s="5">
         <v>2008.67</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="53">
         <v>3055</v>
       </c>
-      <c r="I6" s="47"/>
+      <c r="I6" s="55"/>
       <c r="J6" s="2"/>
       <c r="K6" s="6">
         <v>798.24</v>
@@ -1488,7 +1484,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="45"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
@@ -1507,10 +1503,10 @@
       <c r="G7" s="10">
         <v>156.75</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="101">
         <v>246</v>
       </c>
-      <c r="I7" s="49"/>
+      <c r="I7" s="85"/>
       <c r="J7" s="9"/>
       <c r="K7" s="6">
         <v>58.63</v>
@@ -1524,11 +1520,11 @@
       <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="12">
         <v>346277.12</v>
       </c>
@@ -1541,7 +1537,7 @@
       <c r="G8" s="12">
         <v>9867.5499999999993</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="88">
         <v>14069</v>
       </c>
       <c r="I8" s="60"/>
@@ -1559,10 +1555,10 @@
       <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="94" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1580,10 +1576,10 @@
       <c r="G9" s="5">
         <v>654.35</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="53">
         <v>978</v>
       </c>
-      <c r="I9" s="47"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="2">
         <v>265.07</v>
       </c>
@@ -1600,8 +1596,8 @@
       <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1617,10 +1613,10 @@
       <c r="G10" s="5">
         <v>1944.52</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="53">
         <v>3078</v>
       </c>
-      <c r="I10" s="47"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="2">
         <v>315.27999999999997</v>
       </c>
@@ -1638,10 +1634,10 @@
       <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="65"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="60"/>
       <c r="D11" s="12">
         <v>114163.73</v>
@@ -1655,7 +1651,7 @@
       <c r="G11" s="12">
         <v>2598.87</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="88">
         <v>4056</v>
       </c>
       <c r="I11" s="60"/>
@@ -1674,11 +1670,11 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="17">
         <v>460440.85</v>
       </c>
@@ -1691,10 +1687,10 @@
       <c r="G12" s="17">
         <v>12466.42</v>
       </c>
-      <c r="H12" s="71">
+      <c r="H12" s="89">
         <v>18125</v>
       </c>
-      <c r="I12" s="70"/>
+      <c r="I12" s="65"/>
       <c r="J12" s="17">
         <v>580.35</v>
       </c>
@@ -1710,30 +1706,30 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="74"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="92"/>
     </row>
     <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="47"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
@@ -1746,10 +1742,10 @@
       <c r="G14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="55" t="s">
+      <c r="H14" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="47"/>
+      <c r="I14" s="55"/>
       <c r="J14" s="2" t="s">
         <v>44</v>
       </c>
@@ -1764,13 +1760,13 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="63"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="2">
         <v>299640</v>
       </c>
@@ -1783,10 +1779,10 @@
       <c r="G15" s="5">
         <v>32518.32</v>
       </c>
-      <c r="H15" s="76">
+      <c r="H15" s="95">
         <v>1083.94</v>
       </c>
-      <c r="I15" s="77"/>
+      <c r="I15" s="96"/>
       <c r="J15" s="22">
         <v>0.1085</v>
       </c>
@@ -1801,11 +1797,11 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="62"/>
-      <c r="B16" s="75" t="s">
+      <c r="A16" s="83"/>
+      <c r="B16" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="63"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="2">
         <v>82980</v>
       </c>
@@ -1818,10 +1814,10 @@
       <c r="G16" s="5">
         <v>9431.4599999999991</v>
       </c>
-      <c r="H16" s="76">
+      <c r="H16" s="95">
         <v>314.38</v>
       </c>
-      <c r="I16" s="77"/>
+      <c r="I16" s="96"/>
       <c r="J16" s="22">
         <v>0.1137</v>
       </c>
@@ -1837,10 +1833,10 @@
       <c r="O16" s="24"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="65"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="60"/>
       <c r="D17" s="12">
         <v>382620</v>
@@ -1854,10 +1850,10 @@
       <c r="G17" s="12">
         <v>41949.78</v>
       </c>
-      <c r="H17" s="66">
+      <c r="H17" s="61">
         <v>1398.33</v>
       </c>
-      <c r="I17" s="67"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="25">
         <v>0.1096</v>
       </c>
@@ -1875,7 +1871,7 @@
       <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="59" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="60"/>
@@ -1891,10 +1887,10 @@
       <c r="G18" s="12">
         <v>13006.27</v>
       </c>
-      <c r="H18" s="66">
+      <c r="H18" s="61">
         <v>433.54</v>
       </c>
-      <c r="I18" s="67"/>
+      <c r="I18" s="62"/>
       <c r="J18" s="25">
         <v>0.1023</v>
       </c>
@@ -1909,11 +1905,11 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="17">
         <v>509790</v>
       </c>
@@ -1926,10 +1922,10 @@
       <c r="G19" s="17">
         <v>54956.05</v>
       </c>
-      <c r="H19" s="79">
+      <c r="H19" s="66">
         <v>1831.87</v>
       </c>
-      <c r="I19" s="80"/>
+      <c r="I19" s="67"/>
       <c r="J19" s="28">
         <v>0.10780000000000001</v>
       </c>
@@ -1944,30 +1940,30 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="83"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="3" t="s">
         <v>52</v>
       </c>
@@ -1980,10 +1976,10 @@
       <c r="G21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="55" t="s">
+      <c r="H21" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="47"/>
+      <c r="I21" s="55"/>
       <c r="J21" s="3" t="s">
         <v>57</v>
       </c>
@@ -1998,13 +1994,13 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="82" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="30">
         <v>2.54</v>
       </c>
@@ -2017,10 +2013,10 @@
       <c r="G22" s="30">
         <v>28.49</v>
       </c>
-      <c r="H22" s="85">
+      <c r="H22" s="86">
         <v>34.68</v>
       </c>
-      <c r="I22" s="86"/>
+      <c r="I22" s="87"/>
       <c r="J22" s="30">
         <v>3.55</v>
       </c>
@@ -2035,11 +2031,11 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="62"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="49"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="30">
         <v>2.79</v>
       </c>
@@ -2052,10 +2048,10 @@
       <c r="G23" s="30">
         <v>34.71</v>
       </c>
-      <c r="H23" s="85">
+      <c r="H23" s="86">
         <v>36.619999999999997</v>
       </c>
-      <c r="I23" s="86"/>
+      <c r="I23" s="87"/>
       <c r="J23" s="30">
         <v>4.43</v>
       </c>
@@ -2070,10 +2066,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="65"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="60"/>
       <c r="D24" s="14">
         <v>2.57</v>
@@ -2087,10 +2083,10 @@
       <c r="G24" s="14">
         <v>29.41</v>
       </c>
-      <c r="H24" s="66">
+      <c r="H24" s="61">
         <v>35.090000000000003</v>
       </c>
-      <c r="I24" s="67"/>
+      <c r="I24" s="62"/>
       <c r="J24" s="14">
         <v>3.69</v>
       </c>
@@ -2108,7 +2104,7 @@
       <c r="A25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="59" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="60"/>
@@ -2124,10 +2120,10 @@
       <c r="G25" s="14">
         <v>22.3</v>
       </c>
-      <c r="H25" s="66">
+      <c r="H25" s="61">
         <v>43.93</v>
       </c>
-      <c r="I25" s="67"/>
+      <c r="I25" s="62"/>
       <c r="J25" s="14">
         <v>3.76</v>
       </c>
@@ -2142,11 +2138,11 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="70"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="18">
         <v>2.5299999999999998</v>
       </c>
@@ -2159,10 +2155,10 @@
       <c r="G26" s="18">
         <v>27.84</v>
       </c>
-      <c r="H26" s="79">
+      <c r="H26" s="66">
         <v>36.93</v>
       </c>
-      <c r="I26" s="80"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="18">
         <v>3.71</v>
       </c>
@@ -2177,52 +2173,52 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="83"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="50"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="95" t="s">
+      <c r="C28" s="69"/>
+      <c r="D28" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="97" t="s">
+      <c r="E28" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="97" t="s">
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="L28" s="98"/>
-      <c r="M28" s="99"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="76"/>
     </row>
     <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="90"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="96"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="35" t="s">
         <v>69</v>
       </c>
@@ -2252,13 +2248,13 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="100" t="s">
+      <c r="A30" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="101" t="s">
+      <c r="B30" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="101"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="5">
         <v>230518.98</v>
       </c>
@@ -2292,11 +2288,11 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="100"/>
-      <c r="B31" s="101" t="s">
+      <c r="A31" s="77"/>
+      <c r="B31" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="101"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="5">
         <v>63087.26</v>
       </c>
@@ -2330,11 +2326,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="100"/>
-      <c r="B32" s="102" t="s">
+      <c r="A32" s="77"/>
+      <c r="B32" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="101"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="5">
         <v>4638.47</v>
       </c>
@@ -2368,10 +2364,10 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="65"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="60"/>
       <c r="D33" s="12">
         <v>298244.71000000002</v>
@@ -2410,10 +2406,10 @@
       <c r="A34" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="88"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="12">
         <v>92998.98</v>
       </c>
@@ -2447,11 +2443,11 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="105" t="s">
+      <c r="A35" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="17">
         <v>391243.69</v>
       </c>
@@ -2486,47 +2482,47 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="83"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="50"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="89" t="s">
+      <c r="A37" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="46" t="s">
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="101" t="s">
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="L37" s="101"/>
-      <c r="M37" s="101"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="90"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="2" t="s">
         <v>83</v>
       </c>
@@ -2545,10 +2541,10 @@
       <c r="G38" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H38" s="101" t="s">
+      <c r="H38" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="I38" s="101"/>
+      <c r="I38" s="56"/>
       <c r="J38" s="2" t="s">
         <v>90</v>
       </c>
@@ -2572,18 +2568,12 @@
       <c r="E39" s="22"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="104"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="46"/>
       <c r="J39" s="22"/>
-      <c r="K39" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L39" s="2">
-        <v>0</v>
-      </c>
-      <c r="M39" s="2">
-        <v>0</v>
-      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
@@ -2595,30 +2585,58 @@
       <c r="E40" s="22"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="104"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="46"/>
       <c r="J40" s="22"/>
-      <c r="K40" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="L40" s="2">
-        <v>0</v>
-      </c>
-      <c r="M40" s="22">
-        <v>0</v>
-      </c>
+      <c r="K40" s="8"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="H25:I25"/>
@@ -2635,49 +2653,15 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="H38:I38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/chargingdata/202506-202506.xlsx
+++ b/chargingdata/202506-202506.xlsx
@@ -800,13 +800,112 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -818,55 +917,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -899,91 +968,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1320,57 +1320,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="103"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="106"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1394,10 +1394,10 @@
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="81" t="s">
+      <c r="H4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="55"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1412,7 +1412,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="45" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1433,10 +1433,10 @@
       <c r="G5" s="5">
         <v>7702.13</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="46">
         <v>10768</v>
       </c>
-      <c r="I5" s="55"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="2"/>
       <c r="K5" s="6">
         <v>2877.89</v>
@@ -1449,7 +1449,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="100"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1468,10 +1468,10 @@
       <c r="G6" s="5">
         <v>2008.67</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="46">
         <v>3055</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="2"/>
       <c r="K6" s="6">
         <v>798.24</v>
@@ -1484,7 +1484,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="100"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
@@ -1503,10 +1503,10 @@
       <c r="G7" s="10">
         <v>156.75</v>
       </c>
-      <c r="H7" s="101">
+      <c r="H7" s="48">
         <v>246</v>
       </c>
-      <c r="I7" s="85"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="9"/>
       <c r="K7" s="6">
         <v>58.63</v>
@@ -1520,11 +1520,11 @@
       <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="99"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="12">
         <v>346277.12</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="G8" s="12">
         <v>9867.5499999999993</v>
       </c>
-      <c r="H8" s="88">
+      <c r="H8" s="59">
         <v>14069</v>
       </c>
       <c r="I8" s="60"/>
@@ -1555,10 +1555,10 @@
       <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="63" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1576,10 +1576,10 @@
       <c r="G9" s="5">
         <v>654.35</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="46">
         <v>978</v>
       </c>
-      <c r="I9" s="55"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="2">
         <v>265.07</v>
       </c>
@@ -1596,8 +1596,8 @@
       <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="83"/>
-      <c r="B10" s="94"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1613,10 +1613,10 @@
       <c r="G10" s="5">
         <v>1944.52</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="46">
         <v>3078</v>
       </c>
-      <c r="I10" s="55"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="2">
         <v>315.27999999999997</v>
       </c>
@@ -1634,10 +1634,10 @@
       <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="80"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="60"/>
       <c r="D11" s="12">
         <v>114163.73</v>
@@ -1651,7 +1651,7 @@
       <c r="G11" s="12">
         <v>2598.87</v>
       </c>
-      <c r="H11" s="88">
+      <c r="H11" s="59">
         <v>4056</v>
       </c>
       <c r="I11" s="60"/>
@@ -1670,11 +1670,11 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="17">
         <v>460440.85</v>
       </c>
@@ -1687,10 +1687,10 @@
       <c r="G12" s="17">
         <v>12466.42</v>
       </c>
-      <c r="H12" s="89">
+      <c r="H12" s="71">
         <v>18125</v>
       </c>
-      <c r="I12" s="65"/>
+      <c r="I12" s="70"/>
       <c r="J12" s="17">
         <v>580.35</v>
       </c>
@@ -1706,30 +1706,30 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="92"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="74"/>
     </row>
     <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
@@ -1742,10 +1742,10 @@
       <c r="G14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="55"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="2" t="s">
         <v>44</v>
       </c>
@@ -1760,13 +1760,13 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="94"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="2">
         <v>299640</v>
       </c>
@@ -1779,10 +1779,10 @@
       <c r="G15" s="5">
         <v>32518.32</v>
       </c>
-      <c r="H15" s="95">
+      <c r="H15" s="76">
         <v>1083.94</v>
       </c>
-      <c r="I15" s="96"/>
+      <c r="I15" s="77"/>
       <c r="J15" s="22">
         <v>0.1085</v>
       </c>
@@ -1797,11 +1797,11 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="83"/>
-      <c r="B16" s="93" t="s">
+      <c r="A16" s="62"/>
+      <c r="B16" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="94"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="2">
         <v>82980</v>
       </c>
@@ -1814,10 +1814,10 @@
       <c r="G16" s="5">
         <v>9431.4599999999991</v>
       </c>
-      <c r="H16" s="95">
+      <c r="H16" s="76">
         <v>314.38</v>
       </c>
-      <c r="I16" s="96"/>
+      <c r="I16" s="77"/>
       <c r="J16" s="22">
         <v>0.1137</v>
       </c>
@@ -1833,10 +1833,10 @@
       <c r="O16" s="24"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="80"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="60"/>
       <c r="D17" s="12">
         <v>382620</v>
@@ -1850,10 +1850,10 @@
       <c r="G17" s="12">
         <v>41949.78</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="66">
         <v>1398.33</v>
       </c>
-      <c r="I17" s="62"/>
+      <c r="I17" s="67"/>
       <c r="J17" s="25">
         <v>0.1096</v>
       </c>
@@ -1871,7 +1871,7 @@
       <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="78" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="60"/>
@@ -1887,10 +1887,10 @@
       <c r="G18" s="12">
         <v>13006.27</v>
       </c>
-      <c r="H18" s="61">
+      <c r="H18" s="66">
         <v>433.54</v>
       </c>
-      <c r="I18" s="62"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="25">
         <v>0.1023</v>
       </c>
@@ -1905,11 +1905,11 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="17">
         <v>509790</v>
       </c>
@@ -1922,10 +1922,10 @@
       <c r="G19" s="17">
         <v>54956.05</v>
       </c>
-      <c r="H19" s="66">
+      <c r="H19" s="79">
         <v>1831.87</v>
       </c>
-      <c r="I19" s="67"/>
+      <c r="I19" s="80"/>
       <c r="J19" s="28">
         <v>0.10780000000000001</v>
       </c>
@@ -1940,30 +1940,30 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="50"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="83"/>
     </row>
     <row r="21" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="55"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="3" t="s">
         <v>52</v>
       </c>
@@ -1976,10 +1976,10 @@
       <c r="G21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="81" t="s">
+      <c r="H21" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="55"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="3" t="s">
         <v>57</v>
       </c>
@@ -1994,13 +1994,13 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="61" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="85"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="30">
         <v>2.54</v>
       </c>
@@ -2013,10 +2013,10 @@
       <c r="G22" s="30">
         <v>28.49</v>
       </c>
-      <c r="H22" s="86">
+      <c r="H22" s="85">
         <v>34.68</v>
       </c>
-      <c r="I22" s="87"/>
+      <c r="I22" s="86"/>
       <c r="J22" s="30">
         <v>3.55</v>
       </c>
@@ -2031,11 +2031,11 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="83"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="85"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="30">
         <v>2.79</v>
       </c>
@@ -2048,10 +2048,10 @@
       <c r="G23" s="30">
         <v>34.71</v>
       </c>
-      <c r="H23" s="86">
+      <c r="H23" s="85">
         <v>36.619999999999997</v>
       </c>
-      <c r="I23" s="87"/>
+      <c r="I23" s="86"/>
       <c r="J23" s="30">
         <v>4.43</v>
       </c>
@@ -2066,10 +2066,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="80"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="60"/>
       <c r="D24" s="14">
         <v>2.57</v>
@@ -2083,10 +2083,10 @@
       <c r="G24" s="14">
         <v>29.41</v>
       </c>
-      <c r="H24" s="61">
+      <c r="H24" s="66">
         <v>35.090000000000003</v>
       </c>
-      <c r="I24" s="62"/>
+      <c r="I24" s="67"/>
       <c r="J24" s="14">
         <v>3.69</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="A25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="78" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="60"/>
@@ -2120,10 +2120,10 @@
       <c r="G25" s="14">
         <v>22.3</v>
       </c>
-      <c r="H25" s="61">
+      <c r="H25" s="66">
         <v>43.93</v>
       </c>
-      <c r="I25" s="62"/>
+      <c r="I25" s="67"/>
       <c r="J25" s="14">
         <v>3.76</v>
       </c>
@@ -2138,11 +2138,11 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="18">
         <v>2.5299999999999998</v>
       </c>
@@ -2155,10 +2155,10 @@
       <c r="G26" s="18">
         <v>27.84</v>
       </c>
-      <c r="H26" s="66">
+      <c r="H26" s="79">
         <v>36.93</v>
       </c>
-      <c r="I26" s="67"/>
+      <c r="I26" s="80"/>
       <c r="J26" s="18">
         <v>3.71</v>
       </c>
@@ -2173,52 +2173,52 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="50"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="83"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="72" t="s">
+      <c r="C28" s="92"/>
+      <c r="D28" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="74" t="s">
+      <c r="E28" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="74" t="s">
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="L28" s="75"/>
-      <c r="M28" s="76"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="99"/>
     </row>
     <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="52"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="73"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="96"/>
       <c r="E29" s="35" t="s">
         <v>69</v>
       </c>
@@ -2248,13 +2248,13 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="56"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="5">
         <v>230518.98</v>
       </c>
@@ -2288,11 +2288,11 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="77"/>
-      <c r="B31" s="56" t="s">
+      <c r="A31" s="100"/>
+      <c r="B31" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="56"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="5">
         <v>63087.26</v>
       </c>
@@ -2326,11 +2326,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="77"/>
-      <c r="B32" s="78" t="s">
+      <c r="A32" s="100"/>
+      <c r="B32" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="56"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="5">
         <v>4638.47</v>
       </c>
@@ -2364,10 +2364,10 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="80"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="60"/>
       <c r="D33" s="12">
         <v>298244.71000000002</v>
@@ -2406,10 +2406,10 @@
       <c r="A34" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="58"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="12">
         <v>92998.98</v>
       </c>
@@ -2443,11 +2443,11 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
       <c r="D35" s="17">
         <v>391243.69</v>
       </c>
@@ -2482,47 +2482,47 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="50"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="83"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="53" t="s">
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="56" t="s">
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="101"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="52"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="2" t="s">
         <v>83</v>
       </c>
@@ -2541,10 +2541,10 @@
       <c r="G38" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H38" s="56" t="s">
+      <c r="H38" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="I38" s="56"/>
+      <c r="I38" s="101"/>
       <c r="J38" s="2" t="s">
         <v>90</v>
       </c>
@@ -2568,12 +2568,14 @@
       <c r="E39" s="22"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="46"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="104"/>
       <c r="J39" s="22"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
@@ -2585,58 +2587,26 @@
       <c r="E40" s="22"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="46"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="104"/>
       <c r="J40" s="22"/>
       <c r="K40" s="8"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="22"/>
+      <c r="M40" s="22">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="H38:I38"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="H25:I25"/>
@@ -2653,15 +2623,49 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/chargingdata/202506-202506.xlsx
+++ b/chargingdata/202506-202506.xlsx
@@ -800,39 +800,162 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -842,148 +965,25 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1320,57 +1320,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="51"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="106"/>
     </row>
     <row r="4" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1394,10 +1394,10 @@
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="47"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1412,7 +1412,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="100" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1433,10 +1433,10 @@
       <c r="G5" s="5">
         <v>7702.13</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="53">
         <v>10768</v>
       </c>
-      <c r="I5" s="47"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="2"/>
       <c r="K5" s="6">
         <v>2877.89</v>
@@ -1449,7 +1449,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="45"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1468,10 +1468,10 @@
       <c r="G6" s="5">
         <v>2008.67</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="53">
         <v>3055</v>
       </c>
-      <c r="I6" s="47"/>
+      <c r="I6" s="55"/>
       <c r="J6" s="2"/>
       <c r="K6" s="6">
         <v>798.24</v>
@@ -1484,7 +1484,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="45"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
@@ -1503,10 +1503,10 @@
       <c r="G7" s="10">
         <v>156.75</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="101">
         <v>246</v>
       </c>
-      <c r="I7" s="49"/>
+      <c r="I7" s="85"/>
       <c r="J7" s="9"/>
       <c r="K7" s="6">
         <v>58.63</v>
@@ -1520,11 +1520,11 @@
       <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="12">
         <v>346277.12</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="G8" s="12">
         <v>9867.5499999999993</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="88">
         <v>14069</v>
       </c>
       <c r="I8" s="60"/>
@@ -1555,10 +1555,10 @@
       <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="94" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1576,10 +1576,10 @@
       <c r="G9" s="5">
         <v>654.35</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="53">
         <v>978</v>
       </c>
-      <c r="I9" s="47"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="2">
         <v>265.07</v>
       </c>
@@ -1596,8 +1596,8 @@
       <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1613,10 +1613,10 @@
       <c r="G10" s="5">
         <v>1944.52</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="53">
         <v>3078</v>
       </c>
-      <c r="I10" s="47"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="2">
         <v>315.27999999999997</v>
       </c>
@@ -1634,10 +1634,10 @@
       <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="65"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="60"/>
       <c r="D11" s="12">
         <v>114163.73</v>
@@ -1651,7 +1651,7 @@
       <c r="G11" s="12">
         <v>2598.87</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="88">
         <v>4056</v>
       </c>
       <c r="I11" s="60"/>
@@ -1670,11 +1670,11 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="17">
         <v>460440.85</v>
       </c>
@@ -1687,10 +1687,10 @@
       <c r="G12" s="17">
         <v>12466.42</v>
       </c>
-      <c r="H12" s="71">
+      <c r="H12" s="89">
         <v>18125</v>
       </c>
-      <c r="I12" s="70"/>
+      <c r="I12" s="65"/>
       <c r="J12" s="17">
         <v>580.35</v>
       </c>
@@ -1706,30 +1706,30 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="74"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="92"/>
     </row>
     <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="47"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
@@ -1742,10 +1742,10 @@
       <c r="G14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="55" t="s">
+      <c r="H14" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="47"/>
+      <c r="I14" s="55"/>
       <c r="J14" s="2" t="s">
         <v>44</v>
       </c>
@@ -1760,13 +1760,13 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="63"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="2">
         <v>299640</v>
       </c>
@@ -1779,10 +1779,10 @@
       <c r="G15" s="5">
         <v>32518.32</v>
       </c>
-      <c r="H15" s="76">
+      <c r="H15" s="95">
         <v>1083.94</v>
       </c>
-      <c r="I15" s="77"/>
+      <c r="I15" s="96"/>
       <c r="J15" s="22">
         <v>0.1085</v>
       </c>
@@ -1797,11 +1797,11 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="62"/>
-      <c r="B16" s="75" t="s">
+      <c r="A16" s="83"/>
+      <c r="B16" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="63"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="2">
         <v>82980</v>
       </c>
@@ -1814,10 +1814,10 @@
       <c r="G16" s="5">
         <v>9431.4599999999991</v>
       </c>
-      <c r="H16" s="76">
+      <c r="H16" s="95">
         <v>314.38</v>
       </c>
-      <c r="I16" s="77"/>
+      <c r="I16" s="96"/>
       <c r="J16" s="22">
         <v>0.1137</v>
       </c>
@@ -1833,10 +1833,10 @@
       <c r="O16" s="24"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="65"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="60"/>
       <c r="D17" s="12">
         <v>382620</v>
@@ -1850,10 +1850,10 @@
       <c r="G17" s="12">
         <v>41949.78</v>
       </c>
-      <c r="H17" s="66">
+      <c r="H17" s="61">
         <v>1398.33</v>
       </c>
-      <c r="I17" s="67"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="25">
         <v>0.1096</v>
       </c>
@@ -1871,7 +1871,7 @@
       <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="59" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="60"/>
@@ -1887,10 +1887,10 @@
       <c r="G18" s="12">
         <v>13006.27</v>
       </c>
-      <c r="H18" s="66">
+      <c r="H18" s="61">
         <v>433.54</v>
       </c>
-      <c r="I18" s="67"/>
+      <c r="I18" s="62"/>
       <c r="J18" s="25">
         <v>0.1023</v>
       </c>
@@ -1905,11 +1905,11 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="17">
         <v>509790</v>
       </c>
@@ -1922,10 +1922,10 @@
       <c r="G19" s="17">
         <v>54956.05</v>
       </c>
-      <c r="H19" s="79">
+      <c r="H19" s="66">
         <v>1831.87</v>
       </c>
-      <c r="I19" s="80"/>
+      <c r="I19" s="67"/>
       <c r="J19" s="28">
         <v>0.10780000000000001</v>
       </c>
@@ -1940,30 +1940,30 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="83"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="3" t="s">
         <v>52</v>
       </c>
@@ -1976,10 +1976,10 @@
       <c r="G21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="55" t="s">
+      <c r="H21" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="47"/>
+      <c r="I21" s="55"/>
       <c r="J21" s="3" t="s">
         <v>57</v>
       </c>
@@ -1994,13 +1994,13 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="82" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="30">
         <v>2.54</v>
       </c>
@@ -2013,10 +2013,10 @@
       <c r="G22" s="30">
         <v>28.49</v>
       </c>
-      <c r="H22" s="85">
+      <c r="H22" s="86">
         <v>34.68</v>
       </c>
-      <c r="I22" s="86"/>
+      <c r="I22" s="87"/>
       <c r="J22" s="30">
         <v>3.55</v>
       </c>
@@ -2031,11 +2031,11 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="62"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="49"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="30">
         <v>2.79</v>
       </c>
@@ -2048,10 +2048,10 @@
       <c r="G23" s="30">
         <v>34.71</v>
       </c>
-      <c r="H23" s="85">
+      <c r="H23" s="86">
         <v>36.619999999999997</v>
       </c>
-      <c r="I23" s="86"/>
+      <c r="I23" s="87"/>
       <c r="J23" s="30">
         <v>4.43</v>
       </c>
@@ -2066,10 +2066,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="65"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="60"/>
       <c r="D24" s="14">
         <v>2.57</v>
@@ -2083,10 +2083,10 @@
       <c r="G24" s="14">
         <v>29.41</v>
       </c>
-      <c r="H24" s="66">
+      <c r="H24" s="61">
         <v>35.090000000000003</v>
       </c>
-      <c r="I24" s="67"/>
+      <c r="I24" s="62"/>
       <c r="J24" s="14">
         <v>3.69</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="A25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="59" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="60"/>
@@ -2120,10 +2120,10 @@
       <c r="G25" s="14">
         <v>22.3</v>
       </c>
-      <c r="H25" s="66">
+      <c r="H25" s="61">
         <v>43.93</v>
       </c>
-      <c r="I25" s="67"/>
+      <c r="I25" s="62"/>
       <c r="J25" s="14">
         <v>3.76</v>
       </c>
@@ -2138,11 +2138,11 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="70"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="18">
         <v>2.5299999999999998</v>
       </c>
@@ -2155,10 +2155,10 @@
       <c r="G26" s="18">
         <v>27.84</v>
       </c>
-      <c r="H26" s="79">
+      <c r="H26" s="66">
         <v>36.93</v>
       </c>
-      <c r="I26" s="80"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="18">
         <v>3.71</v>
       </c>
@@ -2173,52 +2173,52 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="83"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="50"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="95" t="s">
+      <c r="C28" s="69"/>
+      <c r="D28" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="97" t="s">
+      <c r="E28" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="97" t="s">
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="L28" s="98"/>
-      <c r="M28" s="99"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="76"/>
     </row>
     <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="90"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="96"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="35" t="s">
         <v>69</v>
       </c>
@@ -2248,13 +2248,13 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="100" t="s">
+      <c r="A30" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="101" t="s">
+      <c r="B30" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="101"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="5">
         <v>230518.98</v>
       </c>
@@ -2288,11 +2288,11 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="100"/>
-      <c r="B31" s="101" t="s">
+      <c r="A31" s="77"/>
+      <c r="B31" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="101"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="5">
         <v>63087.26</v>
       </c>
@@ -2326,11 +2326,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="100"/>
-      <c r="B32" s="102" t="s">
+      <c r="A32" s="77"/>
+      <c r="B32" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="101"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="5">
         <v>4638.47</v>
       </c>
@@ -2364,10 +2364,10 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="65"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="60"/>
       <c r="D33" s="12">
         <v>298244.71000000002</v>
@@ -2406,10 +2406,10 @@
       <c r="A34" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="88"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="12">
         <v>92998.98</v>
       </c>
@@ -2443,11 +2443,11 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="105" t="s">
+      <c r="A35" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="17">
         <v>391243.69</v>
       </c>
@@ -2482,47 +2482,47 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="83"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="50"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="89" t="s">
+      <c r="A37" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="46" t="s">
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="101" t="s">
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="L37" s="101"/>
-      <c r="M37" s="101"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="90"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="2" t="s">
         <v>83</v>
       </c>
@@ -2541,10 +2541,10 @@
       <c r="G38" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H38" s="101" t="s">
+      <c r="H38" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="I38" s="101"/>
+      <c r="I38" s="56"/>
       <c r="J38" s="2" t="s">
         <v>90</v>
       </c>
@@ -2568,14 +2568,12 @@
       <c r="E39" s="22"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="104"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="46"/>
       <c r="J39" s="22"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="2">
-        <v>0</v>
-      </c>
+      <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
@@ -2587,26 +2585,58 @@
       <c r="E40" s="22"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="104"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="46"/>
       <c r="J40" s="22"/>
       <c r="K40" s="8"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="22">
-        <v>0</v>
-      </c>
+      <c r="M40" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="H25:I25"/>
@@ -2623,49 +2653,15 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="H38:I38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
